--- a/CodeSystem-bill-charge-item.xlsx
+++ b/CodeSystem-bill-charge-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T09:50:19+00:00</t>
+    <t>2021-11-22T10:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-charge-item.xlsx
+++ b/CodeSystem-bill-charge-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T10:47:57+00:00</t>
+    <t>2021-12-04T14:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-charge-item.xlsx
+++ b/CodeSystem-bill-charge-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:00:22+00:00</t>
+    <t>2021-12-04T14:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-charge-item.xlsx
+++ b/CodeSystem-bill-charge-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:25:43+00:00</t>
+    <t>2021-12-04T14:41:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-charge-item.xlsx
+++ b/CodeSystem-bill-charge-item.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:41:27+00:00</t>
+    <t>2021-12-08T10:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>Level</t>
@@ -135,10 +135,25 @@
     <t>Claim</t>
   </si>
   <si>
-    <t>contribution</t>
-  </si>
-  <si>
-    <t>Contribution</t>
+    <t>Fee-for-service or Capitation amount</t>
+  </si>
+  <si>
+    <t>commission</t>
+  </si>
+  <si>
+    <t>Commission</t>
+  </si>
+  <si>
+    <t>Commission amount</t>
+  </si>
+  <si>
+    <t>fees</t>
+  </si>
+  <si>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>Fees amount</t>
   </si>
 </sst>
 </file>
@@ -447,7 +462,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -477,19 +492,37 @@
       <c r="C2" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CodeSystem-bill-charge-item.xlsx
+++ b/CodeSystem-bill-charge-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T10:28:46+00:00</t>
+    <t>2021-12-16T15:29:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-charge-item.xlsx
+++ b/CodeSystem-bill-charge-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T15:29:31+00:00</t>
+    <t>2021-12-20T14:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-charge-item.xlsx
+++ b/CodeSystem-bill-charge-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T14:56:49+00:00</t>
+    <t>2021-12-20T16:29:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-charge-item.xlsx
+++ b/CodeSystem-bill-charge-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T16:29:48+00:00</t>
+    <t>2021-12-21T09:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-charge-item.xlsx
+++ b/CodeSystem-bill-charge-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T09:16:10+00:00</t>
+    <t>2021-12-22T09:53:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-charge-item.xlsx
+++ b/CodeSystem-bill-charge-item.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T09:53:41+00:00</t>
+    <t>2022-03-01T16:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Swiss TPH</t>
+    <t>openIMIS Initiative</t>
   </si>
   <si>
     <t>Contact</t>

--- a/CodeSystem-bill-charge-item.xlsx
+++ b/CodeSystem-bill-charge-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:36:49+00:00</t>
+    <t>2022-05-11T15:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-charge-item.xlsx
+++ b/CodeSystem-bill-charge-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T15:46:18+00:00</t>
+    <t>2022-05-12T06:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-charge-item.xlsx
+++ b/CodeSystem-bill-charge-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T06:50:16+00:00</t>
+    <t>2022-05-12T07:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-charge-item.xlsx
+++ b/CodeSystem-bill-charge-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T07:23:31+00:00</t>
+    <t>2022-05-17T09:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-charge-item.xlsx
+++ b/CodeSystem-bill-charge-item.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T09:34:33+00:00</t>
+    <t>2022-05-31T10:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-charge-item.xlsx
+++ b/CodeSystem-bill-charge-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:54:20+00:00</t>
+    <t>2022-05-31T10:56:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
